--- a/tests/data/test_data_04.xlsx
+++ b/tests/data/test_data_04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wizz/Documents/Projects/excelcy/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BC8A16-0CE6-DF43-BC7D-4A359C9757A0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71259F09-A015-924F-9FCC-A94DDFA2766D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="train" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Android Pay</t>
   </si>
   <si>
-    <t>BRAND</t>
-  </si>
-  <si>
     <t>pattern</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>nlp</t>
   </si>
   <si>
-    <t>amazon</t>
-  </si>
-  <si>
     <t>ORG</t>
   </si>
   <si>
@@ -147,7 +141,10 @@
     <t>train.matcher</t>
   </si>
   <si>
-    <t>test_data_01</t>
+    <t>0,4</t>
+  </si>
+  <si>
+    <t>[tmp]/nlp/test_data_04</t>
   </si>
 </sst>
 </file>
@@ -492,9 +489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView zoomScale="138" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -541,8 +536,11 @@
       <c r="D3" t="s">
         <v>28</v>
       </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -583,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -602,7 +600,7 @@
         <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -651,7 +649,7 @@
         <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -683,7 +681,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B93662-D338-7A4C-897B-C0C87D585A42}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -692,10 +692,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
         <v>34</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -703,13 +703,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -758,7 +758,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -766,7 +766,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -779,7 +779,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="b">
         <v>1</v>

--- a/tests/data/test_data_04.xlsx
+++ b/tests/data/test_data_04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wizz/Documents/Projects/excelcy/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71259F09-A015-924F-9FCC-A94DDFA2766D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81420A37-5CC6-974E-B581-6C16C6DDF0DA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="train" sheetId="1" r:id="rId1"/>
@@ -489,7 +489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -721,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -766,7 +766,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">

--- a/tests/data/test_data_04.xlsx
+++ b/tests/data/test_data_04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wizz/Documents/Projects/excelcy/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBBE37E-88E1-5741-9CC8-7B8341D54600}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743DBD1B-710D-FD4C-8D6B-D3459EC36031}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
   <si>
     <t>text</t>
   </si>
@@ -176,16 +176,10 @@
     <t>save_nlp</t>
   </si>
   <si>
-    <t>save_storage</t>
-  </si>
-  <si>
     <t>args</t>
   </si>
   <si>
     <t>file_path=person.xlsx, label=PERSON</t>
-  </si>
-  <si>
-    <t>file_path=[storage_name].xlsx</t>
   </si>
   <si>
     <t>file_path=[tmp]/nlp/data-[date][time]</t>
@@ -531,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BBB3E5-6C1D-7646-B12D-3BE01DC03441}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -556,7 +550,7 @@
         <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
         <v>46</v>
@@ -573,7 +567,7 @@
         <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -606,10 +600,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -620,21 +611,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/test_data_04.xlsx
+++ b/tests/data/test_data_04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wizz/Documents/Projects/excelcy/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743DBD1B-710D-FD4C-8D6B-D3459EC36031}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91820D0-D2C8-2C4F-91AF-782459263790}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>text</t>
   </si>
@@ -32,9 +32,6 @@
     <t>subtext</t>
   </si>
   <si>
-    <t>span</t>
-  </si>
-  <si>
     <t>entity</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>GPE</t>
   </si>
   <si>
-    <t>0,4</t>
-  </si>
-  <si>
     <t>Uber blew through $1 million a week. Android Pay expands to Canada. Spotify steps up Asia expansion.</t>
   </si>
   <si>
@@ -170,19 +164,22 @@
     <t>fn</t>
   </si>
   <si>
-    <t>export_entity</t>
-  </si>
-  <si>
     <t>save_nlp</t>
   </si>
   <si>
     <t>args</t>
   </si>
   <si>
-    <t>file_path=person.xlsx, label=PERSON</t>
-  </si>
-  <si>
     <t>file_path=[tmp]/nlp/data-[date][time]</t>
+  </si>
+  <si>
+    <t>export_train</t>
+  </si>
+  <si>
+    <t>file_path=export/train_04.xlsx</t>
+  </si>
+  <si>
+    <t>file_path=export/train_04.yml</t>
   </si>
 </sst>
 </file>
@@ -527,9 +524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BBB3E5-6C1D-7646-B12D-3BE01DC03441}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -541,19 +536,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" t="s">
-        <v>50</v>
-      </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -564,10 +559,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -578,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -589,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -602,6 +597,9 @@
       <c r="C5" t="s">
         <v>49</v>
       </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -611,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
@@ -640,16 +638,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -663,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -674,10 +672,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -700,16 +698,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -717,13 +715,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -731,13 +729,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -748,7 +746,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -759,9 +757,9 @@
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -772,113 +770,107 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
         <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -891,7 +883,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -901,31 +895,31 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="b">
         <v>1</v>
@@ -933,15 +927,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1">
         <v>0.2</v>
@@ -949,7 +943,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="b">
         <v>1</v>

--- a/tests/data/test_data_04.xlsx
+++ b/tests/data/test_data_04.xlsx
@@ -1,14 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wizz/Documents/Projects/excelcy/tests/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91820D0-D2C8-2C4F-91AF-782459263790}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A38CBE4-DD71-5A40-90F8-FF5C8D6A4DED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -186,8 +181,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -215,9 +218,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -524,7 +531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BBB3E5-6C1D-7646-B12D-3BE01DC03441}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -535,19 +542,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -625,9 +632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BF5D81-E310-3A45-9ABE-A86114765ABD}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -637,16 +642,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -697,16 +702,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -758,16 +763,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -883,9 +888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -894,10 +897,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -930,7 +933,7 @@
         <v>33</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
